--- a/pcb/bom/carte_electronique_didactique_PittetL02_BOM.xlsx
+++ b/pcb/bom/carte_electronique_didactique_PittetL02_BOM.xlsx
@@ -889,16 +889,58 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -921,48 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1314,13 +1314,13 @@
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="34" t="str">
         <f>CONCATENATE("",Sheet2!A5)</f>
         <v>EuroCircuit  1.0.1</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1349,46 +1349,46 @@
     </row>
     <row r="5" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="5"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="30" t="str">
+      <c r="B6" s="32" t="str">
         <f>Sheet2!A4</f>
         <v>1.0.1</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:13" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1396,14 +1396,14 @@
       <c r="C7" s="14"/>
       <c r="D7" s="6"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="11"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -1415,10 +1415,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -1430,10 +1430,10 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1442,13 +1442,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="40" t="str">
         <f>B3</f>
         <v>EuroCircuit  1.0.1</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1481,14 +1481,14 @@
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="8" t="s">
         <v>42</v>
       </c>
@@ -1519,14 +1519,14 @@
         <f t="shared" ref="A14:A42" si="0">ROW(B13) - ROW($B$12)</f>
         <v>1</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="39">
         <v>1</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18" t="s">
         <v>57</v>
@@ -1556,14 +1556,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="38">
         <v>1</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18" t="s">
         <v>58</v>
@@ -1593,14 +1593,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="39">
         <v>1</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="17"/>
       <c r="G16" s="18" t="s">
         <v>59</v>
@@ -1630,14 +1630,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18" t="s">
         <v>60</v>
@@ -1667,14 +1667,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="39">
         <v>1</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18" t="s">
         <v>61</v>
@@ -1704,14 +1704,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="38">
         <v>1</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18" t="s">
         <v>62</v>
@@ -1741,14 +1741,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18" t="s">
         <v>63</v>
@@ -1778,14 +1778,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="38">
         <v>4</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18" t="s">
         <v>64</v>
@@ -1805,14 +1805,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="39">
         <v>2</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="17">
         <v>805</v>
       </c>
@@ -1844,14 +1844,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="38">
         <v>6</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="17">
         <v>805</v>
       </c>
@@ -1883,14 +1883,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="39">
         <v>1</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="17" t="s">
         <v>43</v>
       </c>
@@ -1922,14 +1922,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="38">
         <v>1</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="17" t="s">
         <v>44</v>
       </c>
@@ -1961,14 +1961,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="39">
         <v>2</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="17" t="s">
         <v>45</v>
       </c>
@@ -2000,14 +2000,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="38">
         <v>2</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="17" t="s">
         <v>46</v>
       </c>
@@ -2039,14 +2039,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="39">
         <v>2</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="17" t="s">
         <v>47</v>
       </c>
@@ -2078,14 +2078,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="38">
         <v>2</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="17" t="s">
         <v>48</v>
       </c>
@@ -2117,14 +2117,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="39">
         <v>5</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="17" t="s">
         <v>49</v>
       </c>
@@ -2156,14 +2156,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="38">
         <v>3</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="17" t="s">
         <v>50</v>
       </c>
@@ -2195,14 +2195,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="39">
         <v>1</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="17" t="s">
         <v>51</v>
       </c>
@@ -2234,14 +2234,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="38">
         <v>2</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="31"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="17" t="s">
         <v>52</v>
       </c>
@@ -2273,14 +2273,14 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="39">
         <v>1</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="39"/>
+      <c r="D34" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="31"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="17" t="s">
         <v>53</v>
       </c>
@@ -2312,14 +2312,14 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="38">
         <v>4</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="30" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="31"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="17" t="s">
         <v>54</v>
       </c>
@@ -2351,14 +2351,14 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="39">
         <v>1</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="39"/>
+      <c r="D36" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="31"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="17" t="s">
         <v>54</v>
       </c>
@@ -2390,14 +2390,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="38">
         <v>1</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="30" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="31"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="17" t="s">
         <v>54</v>
       </c>
@@ -2429,14 +2429,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="39">
         <v>1</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30" t="s">
+      <c r="C38" s="39"/>
+      <c r="D38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="31"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="17" t="s">
         <v>54</v>
       </c>
@@ -2468,14 +2468,14 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="38">
         <v>4</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="30" t="s">
+      <c r="C39" s="38"/>
+      <c r="D39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="31"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="17" t="s">
         <v>54</v>
       </c>
@@ -2507,14 +2507,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="39">
         <v>1</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="31"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="17" t="s">
         <v>54</v>
       </c>
@@ -2546,14 +2546,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="38">
         <v>1</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="38"/>
+      <c r="D41" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="31"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="17" t="s">
         <v>54</v>
       </c>
@@ -2585,14 +2585,14 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="39">
         <v>2</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="39"/>
+      <c r="D42" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="31"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="17" t="s">
         <v>55</v>
       </c>
@@ -2636,6 +2636,67 @@
     <row r="45" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B3:E3"/>
@@ -2647,67 +2708,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2824,6 +2824,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010098AFC7C83C7C054E95F4B42F91168742" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="66e3d8284d9fc5410f6939df54f0caa6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c73ba516-6d34-4b92-a096-ac7dfb020022" xmlns:ns3="ebd706b7-678b-40df-972d-f0eaa6262b36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea909251fc86ece970dc0ed8cbb70340" ns2:_="" ns3:_="">
     <xsd:import namespace="c73ba516-6d34-4b92-a096-ac7dfb020022"/>
@@ -3030,16 +3039,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64E99E-77F3-4A44-9FA2-482228DEF9ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF1807D-2C11-4442-B446-3E1610E4AAB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3056,12 +3064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64E99E-77F3-4A44-9FA2-482228DEF9ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/pcb/bom/carte_electronique_didactique_PittetL02_BOM.xlsx
+++ b/pcb/bom/carte_electronique_didactique_PittetL02_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/pcb/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{7286A034-C3E2-4E51-B93B-CA06B5039364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{7286A034-C3E2-4E51-B93B-CA06B5039364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2411547B-9E7A-4872-B629-7B081CB307B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,6 +889,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,12 +931,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,12 +943,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,27 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -1314,13 +1314,13 @@
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="34" t="str">
+      <c r="B3" s="43" t="str">
         <f>CONCATENATE("",Sheet2!A5)</f>
         <v>EuroCircuit  1.0.1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1349,46 +1349,46 @@
     </row>
     <row r="5" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="5"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="32" t="str">
+      <c r="B6" s="30" t="str">
         <f>Sheet2!A4</f>
         <v>1.0.1</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1396,14 +1396,14 @@
       <c r="C7" s="14"/>
       <c r="D7" s="6"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="31"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="11"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -1415,10 +1415,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -1430,10 +1430,10 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1442,13 +1442,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="47" t="str">
         <f>B3</f>
         <v>EuroCircuit  1.0.1</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1481,14 +1481,14 @@
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="45" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="8" t="s">
         <v>42</v>
       </c>
@@ -1519,14 +1519,14 @@
         <f t="shared" ref="A14:A42" si="0">ROW(B13) - ROW($B$12)</f>
         <v>1</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="29">
         <v>1</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18" t="s">
         <v>57</v>
@@ -1556,14 +1556,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="32">
         <v>1</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18" t="s">
         <v>58</v>
@@ -1593,14 +1593,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="29">
         <v>1</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="17"/>
       <c r="G16" s="18" t="s">
         <v>59</v>
@@ -1630,14 +1630,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18" t="s">
         <v>60</v>
@@ -1667,14 +1667,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="29">
         <v>1</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18" t="s">
         <v>61</v>
@@ -1704,14 +1704,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="32">
         <v>1</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18" t="s">
         <v>62</v>
@@ -1741,14 +1741,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="29">
         <v>1</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18" t="s">
         <v>63</v>
@@ -1778,14 +1778,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="32">
         <v>4</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18" t="s">
         <v>64</v>
@@ -1805,14 +1805,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="29">
         <v>2</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="17">
         <v>805</v>
       </c>
@@ -1844,14 +1844,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="32">
         <v>6</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="17">
         <v>805</v>
       </c>
@@ -1883,14 +1883,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="29">
         <v>1</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="33"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="17" t="s">
         <v>43</v>
       </c>
@@ -1922,14 +1922,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="32">
         <v>1</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="17" t="s">
         <v>44</v>
       </c>
@@ -1961,14 +1961,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="29">
         <v>2</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="17" t="s">
         <v>45</v>
       </c>
@@ -2000,14 +2000,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="32">
         <v>2</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="17" t="s">
         <v>46</v>
       </c>
@@ -2039,14 +2039,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="29">
         <v>2</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="17" t="s">
         <v>47</v>
       </c>
@@ -2078,14 +2078,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="32">
         <v>2</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="17" t="s">
         <v>48</v>
       </c>
@@ -2117,14 +2117,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="29">
         <v>5</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="17" t="s">
         <v>49</v>
       </c>
@@ -2156,14 +2156,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="32">
         <v>3</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="32" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="17" t="s">
         <v>50</v>
       </c>
@@ -2195,14 +2195,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="29">
         <v>1</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="32" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="17" t="s">
         <v>51</v>
       </c>
@@ -2234,14 +2234,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="32">
         <v>2</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="32" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="33"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="17" t="s">
         <v>52</v>
       </c>
@@ -2273,14 +2273,14 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="29">
         <v>1</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="17" t="s">
         <v>53</v>
       </c>
@@ -2312,14 +2312,14 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="32">
         <v>4</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="32" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="33"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="17" t="s">
         <v>54</v>
       </c>
@@ -2351,14 +2351,14 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="29">
         <v>1</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="17" t="s">
         <v>54</v>
       </c>
@@ -2390,14 +2390,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="32">
         <v>1</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="32" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="33"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="17" t="s">
         <v>54</v>
       </c>
@@ -2429,14 +2429,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="29">
         <v>1</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="17" t="s">
         <v>54</v>
       </c>
@@ -2468,14 +2468,14 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="32">
         <v>4</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="32" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="33"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="17" t="s">
         <v>54</v>
       </c>
@@ -2507,14 +2507,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B40" s="39">
+      <c r="B40" s="29">
         <v>1</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="32" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="17" t="s">
         <v>54</v>
       </c>
@@ -2546,14 +2546,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="32">
         <v>1</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="32" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="33"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="17" t="s">
         <v>54</v>
       </c>
@@ -2585,14 +2585,14 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B42" s="39">
+      <c r="B42" s="29">
         <v>2</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="32" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="17" t="s">
         <v>55</v>
       </c>
@@ -2636,67 +2636,6 @@
     <row r="45" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B3:E3"/>
@@ -2708,9 +2647,70 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Gras"&amp;16Ecole des Métiers de Fribourg&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -2824,15 +2824,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010098AFC7C83C7C054E95F4B42F91168742" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="66e3d8284d9fc5410f6939df54f0caa6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c73ba516-6d34-4b92-a096-ac7dfb020022" xmlns:ns3="ebd706b7-678b-40df-972d-f0eaa6262b36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea909251fc86ece970dc0ed8cbb70340" ns2:_="" ns3:_="">
     <xsd:import namespace="c73ba516-6d34-4b92-a096-ac7dfb020022"/>
@@ -3039,15 +3030,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64E99E-77F3-4A44-9FA2-482228DEF9ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF1807D-2C11-4442-B446-3E1610E4AAB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3064,4 +3056,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64E99E-77F3-4A44-9FA2-482228DEF9ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>